--- a/PASKurs/лабораторные работы/l2/PAS2.xlsx
+++ b/PASKurs/лабораторные работы/l2/PAS2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KursPro\PASKurs\лабораторные работы\l2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHub projects\KursPro\PASKurs\лабораторные работы\l2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A012100B-B607-4F49-849A-DB816CF484B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48A4DB98-F900-4248-A98E-0161419BE188}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3-ОРС" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="4-РЭпоП" sheetId="2" r:id="rId2"/>
+    <sheet name="5-ОУ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>Кол. польз. (кол. РС)</t>
   </si>
@@ -155,11 +155,62 @@
   <si>
     <t>Площадь подраделения, м^2</t>
   </si>
+  <si>
+    <t>подразделение</t>
+  </si>
+  <si>
+    <t>пользователей</t>
+  </si>
+  <si>
+    <t>станций</t>
+  </si>
+  <si>
+    <t>кол-во пк (pas1)</t>
+  </si>
+  <si>
+    <t>кол-во принтеров (pas 1)</t>
+  </si>
+  <si>
+    <t>Группа пользователей</t>
+  </si>
+  <si>
+    <t>Общее количество пользователей</t>
+  </si>
+  <si>
+    <t>Номер помещения</t>
+  </si>
+  <si>
+    <t>Количество пользователей в помещении</t>
+  </si>
+  <si>
+    <t>Требуемое количество устройств</t>
+  </si>
+  <si>
+    <t>Оптимизированное количество</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Исходное количество ПЭВМ</t>
+  </si>
+  <si>
+    <t>Исходное количество принтеров</t>
+  </si>
+  <si>
+    <t>1 принтер на двоих</t>
+  </si>
+  <si>
+    <t>общее количество оптимизированных устройств</t>
+  </si>
+  <si>
+    <t>1 ПЭВМ для одного</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,15 +280,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -891,11 +948,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,12 +1023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,66 +1126,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1108,24 +1159,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1135,7 +1244,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1449,350 +1650,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1026A19-B2C0-4B41-9A72-31CA588CFEF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="52" t="s">
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-    </row>
-    <row r="5" spans="1:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="9" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="54"/>
+      <c r="T4" s="55"/>
+    </row>
+    <row r="5" spans="1:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="15">
+    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="13">
         <f>D19</f>
         <v>11</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <f>C23</f>
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <f>CEILING(C6/D6, 1)</f>
         <v>11</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f>F19</f>
         <v>7</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f>D23</f>
         <v>2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <f>CEILING(F6/G6, 1)</f>
         <v>4</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <f>H19</f>
         <v>8</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <f>E23</f>
         <v>3</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="23">
         <f>CEILING(I6/J6, 1)</f>
         <v>3</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="25">
         <f>J19</f>
         <v>8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <f>F23</f>
         <v>2</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="29">
         <f>CEILING(L6/M6, 1)</f>
         <v>4</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="31">
         <f>L19</f>
         <v>8</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <f>G23</f>
         <v>3</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="33">
         <f>CEILING(O6/P6, 1)</f>
         <v>3</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="35">
         <f>N19</f>
         <v>3</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="5">
         <f>H23</f>
         <v>3</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="38">
         <f>CEILING(R6/S6, 1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="88.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:20" ht="88.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13">
+      <c r="B7" s="58"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
         <f>C6-E6</f>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20">
+      <c r="F7" s="4"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18">
         <f>F6-H6</f>
         <v>3</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="20">
+      <c r="I7" s="20"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="18">
         <f>I6-K6</f>
         <v>5</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="20">
+      <c r="L7" s="26"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="18">
         <f>L6-N6</f>
         <v>4</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="13">
+      <c r="O7" s="26"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="11">
         <f>O6-Q6</f>
         <v>5</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="20">
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="18">
         <f>R6-T6</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:20" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43">
+      <c r="B8" s="60"/>
+      <c r="C8" s="56">
         <f>E7+H7+K7+N7+Q7+T7</f>
         <v>19</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="44"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="40">
         <f>D19+F19+H19+J19+L19+N19+1</f>
         <v>46</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="40">
         <f>C8</f>
         <v>19</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="40">
         <f>F11-H11</f>
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I13" s="61"/>
-    </row>
-    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I13" s="39"/>
+    </row>
+    <row r="18" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5">
+    <row r="19" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="83">
         <v>11</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="83">
         <v>7</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="5">
-        <v>8</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="83">
+        <v>8</v>
+      </c>
+      <c r="I19" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="5">
-        <v>8</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="83">
+        <v>8</v>
+      </c>
+      <c r="K19" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="5">
-        <v>8</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="83">
+        <v>8</v>
+      </c>
+      <c r="M19" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4">
+    <row r="23" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="82">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="83">
         <v>2</v>
       </c>
-      <c r="E23" s="5">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="83">
+        <v>3</v>
+      </c>
+      <c r="F23" s="83">
         <v>2</v>
       </c>
-      <c r="G23" s="5">
-        <v>3</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="83">
+        <v>3</v>
+      </c>
+      <c r="H23" s="83">
         <v>3</v>
       </c>
     </row>
@@ -1814,53 +2015,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AABEDA7-1BA3-4752-982B-57C41079E63B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
     <col min="22" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="5:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="75" t="s">
+    <row r="9" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="5:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78" t="s">
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="79"/>
-      <c r="N10" s="80"/>
-    </row>
-    <row r="11" spans="5:22" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="77"/>
+      <c r="N10" s="78"/>
+    </row>
+    <row r="11" spans="5:22" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="41" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1887,315 +2088,315 @@
       <c r="N11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="68" t="s">
+      <c r="S11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="69" t="s">
+      <c r="T11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="69" t="s">
+      <c r="U11" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="69" t="s">
+      <c r="V11" s="47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="66">
+    <row r="12" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="44">
         <v>1</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="45">
         <v>2</v>
       </c>
-      <c r="G12" s="67">
-        <v>3</v>
-      </c>
-      <c r="H12" s="67">
+      <c r="G12" s="45">
+        <v>3</v>
+      </c>
+      <c r="H12" s="45">
         <v>4</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="45">
         <v>5</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="45">
         <v>6</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="45">
         <v>7</v>
       </c>
-      <c r="L12" s="67">
-        <v>8</v>
-      </c>
-      <c r="M12" s="67">
+      <c r="L12" s="45">
+        <v>8</v>
+      </c>
+      <c r="M12" s="45">
         <v>9</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="45">
         <v>10</v>
       </c>
-      <c r="S12" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="71">
+      <c r="S12" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="49">
         <f>H13</f>
         <v>11</v>
       </c>
-      <c r="U12" s="72">
+      <c r="U12" s="79">
         <v>6</v>
       </c>
-      <c r="V12" s="71">
-        <f>$U$12*T12</f>
+      <c r="V12" s="49">
+        <f t="shared" ref="V12:V17" si="0">$U$12*T12</f>
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="65">
+    <row r="13" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="43">
         <f>'3-ОРС'!D19</f>
         <v>11</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="43">
         <f>'3-ОРС'!C23</f>
         <v>1</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="43">
         <f>'3-ОРС'!E6</f>
         <v>11</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43">
         <f>V12</f>
         <v>66</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="S13" s="70" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="S13" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="71">
-        <f t="shared" ref="T13:T17" si="0">H14</f>
+      <c r="T13" s="49">
+        <f t="shared" ref="T13:T17" si="1">H14</f>
         <v>4</v>
       </c>
-      <c r="U13" s="73"/>
-      <c r="V13" s="71">
-        <f>$U$12*T13</f>
+      <c r="U13" s="80"/>
+      <c r="V13" s="49">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="64" t="s">
+    <row r="14" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="43">
         <f>'3-ОРС'!F19</f>
         <v>7</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="43">
         <f>'3-ОРС'!D23</f>
         <v>2</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="43">
         <f>'3-ОРС'!H6</f>
         <v>4</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65">
-        <f t="shared" ref="K14:K18" si="1">V13</f>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43">
+        <f t="shared" ref="K14:K17" si="2">V13</f>
         <v>24</v>
       </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="S14" s="70" t="s">
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="S14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="71">
+      <c r="T14" s="49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U14" s="80"/>
+      <c r="V14" s="49">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U14" s="73"/>
-      <c r="V14" s="71">
-        <f>$U$12*T14</f>
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="64" t="s">
+    <row r="15" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="43">
         <f>'3-ОРС'!H19</f>
         <v>8</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="43">
         <f>'3-ОРС'!E23</f>
         <v>3</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="43">
         <f>'3-ОРС'!K6</f>
         <v>3</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65">
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="S15" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="49">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="S15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="80"/>
+      <c r="V15" s="49">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="5:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U15" s="73"/>
-      <c r="V15" s="71">
-        <f>$U$12*T15</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="5:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="65">
+      <c r="F16" s="43">
         <f>'3-ОРС'!J19</f>
         <v>8</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="43">
         <f>'3-ОРС'!F23</f>
         <v>2</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="43">
         <f>'3-ОРС'!N6</f>
         <v>4</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65">
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="S16" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="49">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="S16" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="80"/>
+      <c r="V16" s="49">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="71">
+      <c r="F17" s="43">
+        <f>'3-ОРС'!L19</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="43">
+        <f>'3-ОРС'!G23</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="43">
+        <f>'3-ОРС'!Q6</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="S17" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="81"/>
+      <c r="V17" s="49">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U16" s="73"/>
-      <c r="V16" s="71">
-        <f>$U$12*T16</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="65">
-        <f>'3-ОРС'!L19</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="65">
-        <f>'3-ОРС'!G23</f>
-        <v>3</v>
-      </c>
-      <c r="H17" s="65">
-        <f>'3-ОРС'!Q6</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="S17" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="71">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="74"/>
-      <c r="V17" s="71">
-        <f>$U$12*T17</f>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="65">
+    <row r="18" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="43">
         <f>'3-ОРС'!N19</f>
         <v>3</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="43">
         <f>'3-ОРС'!H23</f>
         <v>3</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="43">
         <f>'3-ОРС'!T6</f>
         <v>1</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65">
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43">
         <f>V17</f>
         <v>6</v>
       </c>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="S18" s="70" t="s">
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="S18" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="71">
+      <c r="T18" s="49">
         <v>1</v>
       </c>
-      <c r="U18" s="71">
-        <v>8</v>
-      </c>
-      <c r="V18" s="71">
+      <c r="U18" s="49">
+        <v>8</v>
+      </c>
+      <c r="V18" s="49">
         <f>T18*U18</f>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="64" t="s">
+    <row r="19" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="43">
         <v>1</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43">
         <f>V18</f>
         <v>8</v>
       </c>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-    </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="O22" s="81"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="O22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2205,4 +2406,777 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="90">
+        <f>'4-РЭпоП'!F13</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="87">
+        <f>'4-РЭпоП'!H13</f>
+        <v>11</v>
+      </c>
+      <c r="F4" s="92">
+        <v>11</v>
+      </c>
+      <c r="G4" s="96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="90">
+        <f>'4-РЭпоП'!F14</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="87">
+        <f>'4-РЭпоП'!H14</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="92">
+        <v>7</v>
+      </c>
+      <c r="G5" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="90">
+        <f>'4-РЭпоП'!F15</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="87">
+        <f>'4-РЭпоП'!H15</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="92">
+        <v>8</v>
+      </c>
+      <c r="G6" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="90">
+        <f>'4-РЭпоП'!F16</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="87">
+        <f>'4-РЭпоП'!H16</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="92">
+        <v>8</v>
+      </c>
+      <c r="G7" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="90">
+        <f>'4-РЭпоП'!F17</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="87">
+        <f>'4-РЭпоП'!H17</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="92">
+        <v>8</v>
+      </c>
+      <c r="G8" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="93">
+        <f>'4-РЭпоП'!F18</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="88">
+        <f>'4-РЭпоП'!H18</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="95">
+        <v>3</v>
+      </c>
+      <c r="G9" s="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="40"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="12" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="3:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="100" t="str">
+        <f>C4</f>
+        <v>П1</v>
+      </c>
+      <c r="D15" s="86">
+        <f>D4</f>
+        <v>11</v>
+      </c>
+      <c r="E15" s="86">
+        <f>'4-РЭпоП'!G13</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="86">
+        <f>G4</f>
+        <v>6</v>
+      </c>
+      <c r="G15" s="103">
+        <v>9</v>
+      </c>
+      <c r="H15" s="106">
+        <v>5</v>
+      </c>
+      <c r="I15" s="106">
+        <v>3</v>
+      </c>
+      <c r="J15" s="89">
+        <f>F15-I15-I16</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="104">
+        <v>11</v>
+      </c>
+      <c r="H16" s="92">
+        <v>6</v>
+      </c>
+      <c r="I16" s="92">
+        <v>3</v>
+      </c>
+      <c r="J16" s="91">
+        <f>F15-I16-I15</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="108"/>
+    </row>
+    <row r="17" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="99" t="str">
+        <f t="shared" ref="C17:C21" si="0">C5</f>
+        <v>П2</v>
+      </c>
+      <c r="D17" s="50">
+        <f t="shared" ref="D17:D20" si="1">D5</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="50">
+        <f>'4-РЭпоП'!G14</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="50">
+        <f>G5</f>
+        <v>4</v>
+      </c>
+      <c r="G17" s="105">
+        <v>13</v>
+      </c>
+      <c r="H17" s="105">
+        <v>4</v>
+      </c>
+      <c r="I17" s="105">
+        <v>2</v>
+      </c>
+      <c r="J17" s="50">
+        <f>F17-I17</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>П3</v>
+      </c>
+      <c r="D18" s="91">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="91">
+        <f>'4-РЭпоП'!G15</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="50">
+        <f t="shared" ref="F18:F21" si="2">G6</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="92">
+        <v>7</v>
+      </c>
+      <c r="H18" s="92">
+        <v>3</v>
+      </c>
+      <c r="I18" s="92">
+        <v>2</v>
+      </c>
+      <c r="J18" s="50">
+        <f t="shared" ref="J18:J21" si="3">F18-I18</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="99" t="str">
+        <f t="shared" si="0"/>
+        <v>П4</v>
+      </c>
+      <c r="D19" s="50">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E19" s="50">
+        <f>'4-РЭпоП'!G16</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G19" s="105">
+        <v>12</v>
+      </c>
+      <c r="H19" s="105">
+        <v>4</v>
+      </c>
+      <c r="I19" s="105">
+        <v>2</v>
+      </c>
+      <c r="J19" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>П5</v>
+      </c>
+      <c r="D20" s="94">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E20" s="94">
+        <f>'4-РЭпоП'!G17</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G20" s="95">
+        <v>6</v>
+      </c>
+      <c r="H20" s="95">
+        <v>3</v>
+      </c>
+      <c r="I20" s="95">
+        <v>2</v>
+      </c>
+      <c r="J20" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>ЭП1</v>
+      </c>
+      <c r="D21" s="94">
+        <f>D9</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="94">
+        <f>'4-РЭпоП'!G18</f>
+        <v>3</v>
+      </c>
+      <c r="F21" s="50">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="95">
+        <v>2</v>
+      </c>
+      <c r="H21" s="95">
+        <v>1</v>
+      </c>
+      <c r="I21" s="95">
+        <v>1</v>
+      </c>
+      <c r="J21" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109">
+        <f>SUM(J15:J21)</f>
+        <v>9</v>
+      </c>
+      <c r="K22" s="109"/>
+    </row>
+    <row r="24" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="3:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="100" t="str">
+        <f>C15</f>
+        <v>П1</v>
+      </c>
+      <c r="D27" s="86">
+        <f>D15</f>
+        <v>11</v>
+      </c>
+      <c r="E27" s="86">
+        <f>E15</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="86">
+        <f>F4</f>
+        <v>11</v>
+      </c>
+      <c r="G27" s="103">
+        <f>G15</f>
+        <v>9</v>
+      </c>
+      <c r="H27" s="106">
+        <f>H15</f>
+        <v>5</v>
+      </c>
+      <c r="I27" s="106">
+        <f>H27</f>
+        <v>5</v>
+      </c>
+      <c r="J27" s="89">
+        <f>F27-I27-I28</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="104">
+        <f>G16</f>
+        <v>11</v>
+      </c>
+      <c r="H28" s="92">
+        <f>H16</f>
+        <v>6</v>
+      </c>
+      <c r="I28" s="92">
+        <f>H28</f>
+        <v>6</v>
+      </c>
+      <c r="J28" s="91">
+        <f>F27-I28-I27</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="108"/>
+    </row>
+    <row r="29" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="99" t="str">
+        <f t="shared" ref="C29:E33" si="4">C17</f>
+        <v>П2</v>
+      </c>
+      <c r="D29" s="50">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="50">
+        <f>E17</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="50">
+        <f>F5</f>
+        <v>7</v>
+      </c>
+      <c r="G29" s="105">
+        <f>G17</f>
+        <v>13</v>
+      </c>
+      <c r="H29" s="105">
+        <f>H17</f>
+        <v>4</v>
+      </c>
+      <c r="I29" s="105">
+        <f>H29</f>
+        <v>4</v>
+      </c>
+      <c r="J29" s="50">
+        <f>F29-I29</f>
+        <v>3</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="90" t="str">
+        <f t="shared" si="4"/>
+        <v>П3</v>
+      </c>
+      <c r="D30" s="91">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E30" s="50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="50">
+        <f t="shared" ref="F30:F32" si="5">F6</f>
+        <v>8</v>
+      </c>
+      <c r="G30" s="92">
+        <v>7</v>
+      </c>
+      <c r="H30" s="105">
+        <f t="shared" ref="H30:H33" si="6">H18</f>
+        <v>3</v>
+      </c>
+      <c r="I30" s="92">
+        <f>H30</f>
+        <v>3</v>
+      </c>
+      <c r="J30" s="50">
+        <f t="shared" ref="J30:J33" si="7">F30-I30</f>
+        <v>5</v>
+      </c>
+      <c r="K30" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="99" t="str">
+        <f t="shared" si="4"/>
+        <v>П4</v>
+      </c>
+      <c r="D31" s="50">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="50">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G31" s="105">
+        <v>12</v>
+      </c>
+      <c r="H31" s="105">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="92">
+        <f t="shared" ref="I31:I33" si="8">H31</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="50">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v>П5</v>
+      </c>
+      <c r="D32" s="94">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F32" s="50">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="95">
+        <v>6</v>
+      </c>
+      <c r="H32" s="105">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I32" s="92">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="50">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K32" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v>ЭП1</v>
+      </c>
+      <c r="D33" s="94">
+        <f>D21</f>
+        <v>3</v>
+      </c>
+      <c r="E33" s="50">
+        <f t="shared" ref="E33" si="9">E21</f>
+        <v>3</v>
+      </c>
+      <c r="F33" s="50">
+        <f>F9</f>
+        <v>3</v>
+      </c>
+      <c r="G33" s="95">
+        <v>2</v>
+      </c>
+      <c r="H33" s="105">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="92">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K33" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109">
+        <f>SUM(J27:J33)</f>
+        <v>19</v>
+      </c>
+      <c r="K34" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PASKurs/лабораторные работы/l2/PAS2.xlsx
+++ b/PASKurs/лабораторные работы/l2/PAS2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHub projects\KursPro\PASKurs\лабораторные работы\l2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KursPro\PASKurs\лабораторные работы\l2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDA46B9-3EDD-4EDE-BA23-4551FFE5040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3-ОРС" sheetId="1" r:id="rId1"/>
     <sheet name="4-РЭпоП" sheetId="2" r:id="rId2"/>
     <sheet name="5-ОУ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Кол. польз. (кол. РС)</t>
   </si>
@@ -204,13 +205,13 @@
     <t>общее количество оптимизированных устройств</t>
   </si>
   <si>
-    <t>1 ПЭВМ для одного</t>
+    <t>1 ПЭВМ на одного</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1009,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,10 +1172,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1253,11 +1345,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1265,77 +1384,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,58 +1706,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="70" t="s">
+      <c r="G4" s="99"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="53" t="s">
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="53" t="s">
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="53" t="s">
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="54"/>
-      <c r="T4" s="55"/>
-    </row>
-    <row r="5" spans="1:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83"/>
+    </row>
+    <row r="5" spans="1:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1757,9 +1813,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="13">
         <f>D19</f>
         <v>11</v>
@@ -1833,11 +1889,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="88.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:20" ht="88.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="4"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11">
@@ -1875,35 +1931,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:20" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="56">
+      <c r="B8" s="88"/>
+      <c r="C8" s="84">
         <f>E7+H7+K7+N7+Q7+T7</f>
         <v>19</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="86"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -1926,74 +1982,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I13" s="39"/>
     </row>
-    <row r="18" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="83">
+    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="53">
         <v>11</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="53">
         <v>7</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="53">
         <v>8</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="I19" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="53">
         <v>8</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="83">
+      <c r="L19" s="53">
         <v>8</v>
       </c>
-      <c r="M19" s="83" t="s">
+      <c r="M19" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="82">
-        <v>1</v>
-      </c>
-      <c r="D23" s="83">
-        <v>2</v>
-      </c>
-      <c r="E23" s="83">
-        <v>3</v>
-      </c>
-      <c r="F23" s="83">
-        <v>2</v>
-      </c>
-      <c r="G23" s="83">
-        <v>3</v>
-      </c>
-      <c r="H23" s="83">
+    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="52">
+        <v>1</v>
+      </c>
+      <c r="D23" s="53">
+        <v>2</v>
+      </c>
+      <c r="E23" s="53">
+        <v>3</v>
+      </c>
+      <c r="F23" s="53">
+        <v>2</v>
+      </c>
+      <c r="G23" s="53">
+        <v>3</v>
+      </c>
+      <c r="H23" s="53">
         <v>3</v>
       </c>
     </row>
@@ -2015,49 +2071,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E9:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
     <col min="22" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="5:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="73" t="s">
+    <row r="9" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="5:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="76" t="s">
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="77"/>
-      <c r="N10" s="78"/>
-    </row>
-    <row r="11" spans="5:22" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="105"/>
+      <c r="N10" s="106"/>
+    </row>
+    <row r="11" spans="5:22" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2101,7 +2157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="44">
         <v>1</v>
       </c>
@@ -2139,7 +2195,7 @@
         <f>H13</f>
         <v>11</v>
       </c>
-      <c r="U12" s="79">
+      <c r="U12" s="107">
         <v>6</v>
       </c>
       <c r="V12" s="49">
@@ -2147,7 +2203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="42" t="s">
         <v>3</v>
       </c>
@@ -2179,13 +2235,13 @@
         <f t="shared" ref="T13:T17" si="1">H14</f>
         <v>4</v>
       </c>
-      <c r="U13" s="80"/>
+      <c r="U13" s="108"/>
       <c r="V13" s="49">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="42" t="s">
         <v>4</v>
       </c>
@@ -2217,13 +2273,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U14" s="80"/>
+      <c r="U14" s="108"/>
       <c r="V14" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="42" t="s">
         <v>5</v>
       </c>
@@ -2255,13 +2311,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U15" s="80"/>
+      <c r="U15" s="108"/>
       <c r="V15" s="49">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="5:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="42" t="s">
         <v>6</v>
       </c>
@@ -2293,13 +2349,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U16" s="80"/>
+      <c r="U16" s="108"/>
       <c r="V16" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="42" t="s">
         <v>7</v>
       </c>
@@ -2331,13 +2387,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U17" s="81"/>
+      <c r="U17" s="109"/>
       <c r="V17" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="5:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="42" t="s">
         <v>8</v>
       </c>
@@ -2376,7 +2432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="42" t="s">
         <v>18</v>
       </c>
@@ -2395,8 +2451,8 @@
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
     </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="O22" s="52"/>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="O22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2409,760 +2465,834 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:K33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="98" t="s">
+    <row r="2" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="64" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="90">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="56">
         <f>'4-РЭпоП'!F13</f>
         <v>11</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="54">
         <f>'4-РЭпоП'!H13</f>
         <v>11</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="58">
         <v>11</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="62">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="87" t="s">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="56">
         <f>'4-РЭпоП'!F14</f>
         <v>7</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5" s="54">
         <f>'4-РЭпоП'!H14</f>
         <v>4</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="58">
         <v>7</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="62">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="87" t="s">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="56">
         <f>'4-РЭпоП'!F15</f>
         <v>8</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="54">
         <f>'4-РЭпоП'!H15</f>
         <v>3</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="58">
         <v>8</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="62">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="87" t="s">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="56">
         <f>'4-РЭпоП'!F16</f>
         <v>8</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="54">
         <f>'4-РЭпоП'!H16</f>
         <v>4</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="58">
         <v>8</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="62">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="87" t="s">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="56">
         <f>'4-РЭпоП'!F17</f>
         <v>8</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="54">
         <f>'4-РЭпоП'!H17</f>
         <v>3</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="58">
         <v>8</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="62">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="88" t="s">
+    <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="59">
         <f>'4-РЭпоП'!F18</f>
         <v>3</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="55">
         <f>'4-РЭпоП'!H18</f>
         <v>1</v>
       </c>
-      <c r="F9" s="95">
-        <v>3</v>
-      </c>
-      <c r="G9" s="97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F9" s="61">
+        <v>3</v>
+      </c>
+      <c r="G9" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" s="40"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="12" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="3:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="84" t="s">
+      <c r="G10" s="51"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="12" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="84" t="s">
+      <c r="E13" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="I13" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="84" t="s">
+      <c r="K13" s="121" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="100" t="str">
+      <c r="N13" s="51"/>
+    </row>
+    <row r="14" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+    </row>
+    <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="115" t="str">
         <f>C4</f>
         <v>П1</v>
       </c>
-      <c r="D15" s="86">
-        <f>D4</f>
+      <c r="D15" s="117">
         <v>11</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="117">
         <f>'4-РЭпоП'!G13</f>
         <v>1</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="119">
         <f>G4</f>
         <v>6</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="75">
+        <v>14</v>
+      </c>
+      <c r="H15" s="72">
         <v>9</v>
       </c>
-      <c r="H15" s="106">
+      <c r="I15" s="76">
         <v>5</v>
       </c>
-      <c r="I15" s="106">
-        <v>3</v>
-      </c>
-      <c r="J15" s="89">
+      <c r="J15" s="119">
         <f>F15-I15-I16</f>
         <v>0</v>
       </c>
-      <c r="K15" s="107" t="s">
+      <c r="K15" s="110" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="104">
-        <v>11</v>
-      </c>
-      <c r="H16" s="92">
-        <v>6</v>
-      </c>
-      <c r="I16" s="92">
-        <v>3</v>
-      </c>
-      <c r="J16" s="91">
-        <f>F15-I16-I15</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="108"/>
-    </row>
-    <row r="17" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="99" t="str">
-        <f t="shared" ref="C17:C21" si="0">C5</f>
+    <row r="16" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="70">
+        <v>12</v>
+      </c>
+      <c r="H16" s="71">
+        <v>2</v>
+      </c>
+      <c r="I16" s="77">
+        <v>1</v>
+      </c>
+      <c r="J16" s="120"/>
+      <c r="K16" s="111"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="115" t="str">
+        <f>C5</f>
         <v>П2</v>
       </c>
-      <c r="D17" s="50">
-        <f t="shared" ref="D17:D20" si="1">D5</f>
-        <v>7</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="D17" s="117">
+        <v>4</v>
+      </c>
+      <c r="E17" s="117">
         <f>'4-РЭпоП'!G14</f>
         <v>2</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="119">
         <f>G5</f>
         <v>4</v>
       </c>
-      <c r="G17" s="105">
+      <c r="G17" s="72">
+        <v>4</v>
+      </c>
+      <c r="H17" s="72">
+        <v>2</v>
+      </c>
+      <c r="I17" s="76">
+        <v>1</v>
+      </c>
+      <c r="J17" s="119">
+        <f>F17-I17-I18</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="110" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="116"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="74">
+        <v>5</v>
+      </c>
+      <c r="H18" s="72">
+        <v>2</v>
+      </c>
+      <c r="I18" s="76">
+        <v>1</v>
+      </c>
+      <c r="J18" s="120"/>
+      <c r="K18" s="111"/>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="56" t="str">
+        <f>C6</f>
+        <v>П3</v>
+      </c>
+      <c r="D19" s="57">
+        <v>3</v>
+      </c>
+      <c r="E19" s="57">
+        <f>'4-РЭпоП'!G15</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="67">
+        <f>G6</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="71">
+        <v>6</v>
+      </c>
+      <c r="H19" s="71">
+        <v>3</v>
+      </c>
+      <c r="I19" s="78">
+        <v>2</v>
+      </c>
+      <c r="J19" s="60">
+        <f t="shared" ref="J19:J23" si="0">F19-I19</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="115" t="str">
+        <f>C7</f>
+        <v>П4</v>
+      </c>
+      <c r="D20" s="117">
+        <v>4</v>
+      </c>
+      <c r="E20" s="117">
+        <f>'4-РЭпоП'!G16</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="119">
+        <f>G7</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="72">
+        <v>1</v>
+      </c>
+      <c r="H20" s="72">
+        <v>1</v>
+      </c>
+      <c r="I20" s="76">
+        <v>1</v>
+      </c>
+      <c r="J20" s="110">
+        <f>F20-I20-I21</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="110" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="116"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="73">
+        <v>7</v>
+      </c>
+      <c r="H21" s="73">
+        <v>3</v>
+      </c>
+      <c r="I21" s="79">
+        <v>2</v>
+      </c>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="59" t="str">
+        <f>C8</f>
+        <v>П5</v>
+      </c>
+      <c r="D22" s="60">
+        <v>3</v>
+      </c>
+      <c r="E22" s="60">
+        <f>'4-РЭпоП'!G17</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="67">
+        <f>G8</f>
+        <v>4</v>
+      </c>
+      <c r="G22" s="73">
         <v>13</v>
       </c>
-      <c r="H17" s="105">
-        <v>4</v>
-      </c>
-      <c r="I17" s="105">
-        <v>2</v>
-      </c>
-      <c r="J17" s="50">
-        <f>F17-I17</f>
-        <v>2</v>
-      </c>
-      <c r="K17" s="51" t="s">
+      <c r="H22" s="73">
+        <v>3</v>
+      </c>
+      <c r="I22" s="79">
+        <v>2</v>
+      </c>
+      <c r="J22" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="90" t="str">
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="65" t="str">
+        <f>C9</f>
+        <v>ЭП1</v>
+      </c>
+      <c r="D23" s="66">
+        <v>1</v>
+      </c>
+      <c r="E23" s="66">
+        <f>'4-РЭпоП'!G18</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="67">
+        <f>G9</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="72">
+        <v>2</v>
+      </c>
+      <c r="H23" s="72">
+        <v>1</v>
+      </c>
+      <c r="I23" s="76">
+        <v>1</v>
+      </c>
+      <c r="J23" s="66">
         <f t="shared" si="0"/>
-        <v>П3</v>
-      </c>
-      <c r="D18" s="91">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="112">
+        <f>SUM(J15:J23)</f>
         <v>8</v>
       </c>
-      <c r="E18" s="91">
-        <f>'4-РЭпоП'!G15</f>
-        <v>3</v>
-      </c>
-      <c r="F18" s="50">
-        <f t="shared" ref="F18:F21" si="2">G6</f>
-        <v>4</v>
-      </c>
-      <c r="G18" s="92">
-        <v>7</v>
-      </c>
-      <c r="H18" s="92">
-        <v>3</v>
-      </c>
-      <c r="I18" s="92">
-        <v>2</v>
-      </c>
-      <c r="J18" s="50">
-        <f t="shared" ref="J18:J21" si="3">F18-I18</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="99" t="str">
-        <f t="shared" si="0"/>
-        <v>П4</v>
-      </c>
-      <c r="D19" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E19" s="50">
-        <f>'4-РЭпоП'!G16</f>
-        <v>2</v>
-      </c>
-      <c r="F19" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G19" s="105">
-        <v>12</v>
-      </c>
-      <c r="H19" s="105">
-        <v>4</v>
-      </c>
-      <c r="I19" s="105">
-        <v>2</v>
-      </c>
-      <c r="J19" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>П5</v>
-      </c>
-      <c r="D20" s="94">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E20" s="94">
-        <f>'4-РЭпоП'!G17</f>
-        <v>3</v>
-      </c>
-      <c r="F20" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G20" s="95">
-        <v>6</v>
-      </c>
-      <c r="H20" s="95">
-        <v>3</v>
-      </c>
-      <c r="I20" s="95">
-        <v>2</v>
-      </c>
-      <c r="J20" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K20" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>ЭП1</v>
-      </c>
-      <c r="D21" s="94">
-        <f>D9</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="94">
-        <f>'4-РЭпоП'!G18</f>
-        <v>3</v>
-      </c>
-      <c r="F21" s="50">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="95">
-        <v>2</v>
-      </c>
-      <c r="H21" s="95">
-        <v>1</v>
-      </c>
-      <c r="I21" s="95">
-        <v>1</v>
-      </c>
-      <c r="J21" s="50">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109">
-        <f>SUM(J15:J21)</f>
-        <v>9</v>
-      </c>
-      <c r="K22" s="109"/>
-    </row>
-    <row r="24" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="3:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="84" t="s">
+      <c r="K24" s="114"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="80"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+    </row>
+    <row r="27" spans="2:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="80"/>
+      <c r="C27" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D27" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="84" t="s">
+      <c r="E27" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G27" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H27" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="84" t="s">
+      <c r="I27" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="84" t="s">
+      <c r="J27" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="84" t="s">
+      <c r="K27" s="121" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="100" t="str">
-        <f>C15</f>
-        <v>П1</v>
-      </c>
-      <c r="D27" s="86">
-        <f>D15</f>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="80"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="80"/>
+      <c r="C29" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="117">
         <v>11</v>
       </c>
-      <c r="E27" s="86">
-        <f>E15</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="86">
+      <c r="E29" s="117">
+        <v>1</v>
+      </c>
+      <c r="F29" s="119">
         <f>F4</f>
         <v>11</v>
       </c>
-      <c r="G27" s="103">
-        <f>G15</f>
+      <c r="G29" s="75">
+        <v>14</v>
+      </c>
+      <c r="H29" s="72">
         <v>9</v>
       </c>
-      <c r="H27" s="106">
-        <f>H15</f>
-        <v>5</v>
-      </c>
-      <c r="I27" s="106">
-        <f>H27</f>
-        <v>5</v>
-      </c>
-      <c r="J27" s="89">
-        <f>F27-I27-I28</f>
+      <c r="I29" s="76">
+        <v>9</v>
+      </c>
+      <c r="J29" s="119">
+        <f>F29-I29-I30</f>
         <v>0</v>
       </c>
-      <c r="K27" s="107" t="s">
+      <c r="K29" s="110" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="104">
-        <f>G16</f>
-        <v>11</v>
-      </c>
-      <c r="H28" s="92">
-        <f>H16</f>
-        <v>6</v>
-      </c>
-      <c r="I28" s="92">
-        <f>H28</f>
-        <v>6</v>
-      </c>
-      <c r="J28" s="91">
-        <f>F27-I28-I27</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="108"/>
-    </row>
-    <row r="29" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="99" t="str">
-        <f t="shared" ref="C29:E33" si="4">C17</f>
-        <v>П2</v>
-      </c>
-      <c r="D29" s="50">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="E29" s="50">
-        <f>E17</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="50">
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="80"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="70">
+        <v>12</v>
+      </c>
+      <c r="H30" s="71">
+        <v>2</v>
+      </c>
+      <c r="I30" s="77">
+        <v>2</v>
+      </c>
+      <c r="J30" s="120"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="80"/>
+      <c r="C31" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="117">
+        <v>4</v>
+      </c>
+      <c r="E31" s="117">
+        <v>2</v>
+      </c>
+      <c r="F31" s="119">
         <f>F5</f>
         <v>7</v>
       </c>
-      <c r="G29" s="105">
-        <f>G17</f>
+      <c r="G31" s="72">
+        <v>4</v>
+      </c>
+      <c r="H31" s="72">
+        <v>2</v>
+      </c>
+      <c r="I31" s="76">
+        <v>2</v>
+      </c>
+      <c r="J31" s="119">
+        <f>F31-I31-I32</f>
+        <v>3</v>
+      </c>
+      <c r="K31" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="80"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="74">
+        <v>5</v>
+      </c>
+      <c r="H32" s="72">
+        <v>2</v>
+      </c>
+      <c r="I32" s="76">
+        <v>2</v>
+      </c>
+      <c r="J32" s="120"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+    </row>
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="80"/>
+      <c r="C33" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="69">
+        <v>3</v>
+      </c>
+      <c r="E33" s="69">
+        <v>3</v>
+      </c>
+      <c r="F33" s="67">
+        <f>F6</f>
+        <v>8</v>
+      </c>
+      <c r="G33" s="71">
+        <v>6</v>
+      </c>
+      <c r="H33" s="71">
+        <v>3</v>
+      </c>
+      <c r="I33" s="78">
+        <v>3</v>
+      </c>
+      <c r="J33" s="60">
+        <f t="shared" ref="J33" si="1">F33-I33</f>
+        <v>5</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="80"/>
+      <c r="C34" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="117">
+        <v>4</v>
+      </c>
+      <c r="E34" s="117">
+        <v>2</v>
+      </c>
+      <c r="F34" s="119">
+        <v>8</v>
+      </c>
+      <c r="G34" s="72">
+        <v>1</v>
+      </c>
+      <c r="H34" s="72">
+        <v>1</v>
+      </c>
+      <c r="I34" s="76">
+        <v>1</v>
+      </c>
+      <c r="J34" s="110">
+        <f>F34-I34-I35</f>
+        <v>4</v>
+      </c>
+      <c r="K34" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="80"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="73">
+        <v>7</v>
+      </c>
+      <c r="H35" s="73">
+        <v>3</v>
+      </c>
+      <c r="I35" s="79">
+        <v>3</v>
+      </c>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="80"/>
+      <c r="C36" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="60">
+        <v>3</v>
+      </c>
+      <c r="E36" s="60">
+        <v>3</v>
+      </c>
+      <c r="F36" s="67">
+        <v>8</v>
+      </c>
+      <c r="G36" s="73">
         <v>13</v>
       </c>
-      <c r="H29" s="105">
-        <f>H17</f>
-        <v>4</v>
-      </c>
-      <c r="I29" s="105">
-        <f>H29</f>
-        <v>4</v>
-      </c>
-      <c r="J29" s="50">
-        <f>F29-I29</f>
-        <v>3</v>
-      </c>
-      <c r="K29" s="51" t="s">
+      <c r="H36" s="73">
+        <v>3</v>
+      </c>
+      <c r="I36" s="79">
+        <v>3</v>
+      </c>
+      <c r="J36" s="66">
+        <f t="shared" ref="J36:J37" si="2">F36-I36</f>
+        <v>5</v>
+      </c>
+      <c r="K36" s="64" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="90" t="str">
-        <f t="shared" si="4"/>
-        <v>П3</v>
-      </c>
-      <c r="D30" s="91">
-        <f t="shared" si="4"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="80"/>
+      <c r="C37" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="50">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F30" s="50">
-        <f t="shared" ref="F30:F32" si="5">F6</f>
-        <v>8</v>
-      </c>
-      <c r="G30" s="92">
-        <v>7</v>
-      </c>
-      <c r="H30" s="105">
-        <f t="shared" ref="H30:H33" si="6">H18</f>
-        <v>3</v>
-      </c>
-      <c r="I30" s="92">
-        <f>H30</f>
-        <v>3</v>
-      </c>
-      <c r="J30" s="50">
-        <f t="shared" ref="J30:J33" si="7">F30-I30</f>
-        <v>5</v>
-      </c>
-      <c r="K30" s="51" t="s">
+      <c r="D37" s="66">
+        <v>1</v>
+      </c>
+      <c r="E37" s="66">
+        <v>3</v>
+      </c>
+      <c r="F37" s="67">
+        <v>3</v>
+      </c>
+      <c r="G37" s="72">
+        <v>2</v>
+      </c>
+      <c r="H37" s="72">
+        <v>1</v>
+      </c>
+      <c r="I37" s="76">
+        <v>1</v>
+      </c>
+      <c r="J37" s="66">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K37" s="64" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="99" t="str">
-        <f t="shared" si="4"/>
-        <v>П4</v>
-      </c>
-      <c r="D31" s="50">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="E31" s="50">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F31" s="50">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G31" s="105">
-        <v>12</v>
-      </c>
-      <c r="H31" s="105">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="92">
-        <f t="shared" ref="I31:I33" si="8">H31</f>
-        <v>4</v>
-      </c>
-      <c r="J31" s="50">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="K31" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>П5</v>
-      </c>
-      <c r="D32" s="94">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="E32" s="50">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F32" s="50">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G32" s="95">
-        <v>6</v>
-      </c>
-      <c r="H32" s="105">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I32" s="92">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="J32" s="50">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>ЭП1</v>
-      </c>
-      <c r="D33" s="94">
-        <f>D21</f>
-        <v>3</v>
-      </c>
-      <c r="E33" s="50">
-        <f t="shared" ref="E33" si="9">E21</f>
-        <v>3</v>
-      </c>
-      <c r="F33" s="50">
-        <f>F9</f>
-        <v>3</v>
-      </c>
-      <c r="G33" s="95">
-        <v>2</v>
-      </c>
-      <c r="H33" s="105">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I33" s="92">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="50">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K33" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="109" t="s">
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="80"/>
+      <c r="C38" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109">
-        <f>SUM(J27:J33)</f>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="112">
+        <f>SUM(J29:J37)</f>
         <v>19</v>
       </c>
-      <c r="K34" s="109"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
+  <mergeCells count="58">
     <mergeCell ref="K15:K16"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="J13:J14"/>
@@ -3176,6 +3306,48 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="J34:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
